--- a/data/4/20230615-a1r-nc-session4-k_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-k_transcript.xlsx
@@ -1,375 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56627F9A-E147-3C4D-857A-3B9AA93625E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:08"</t>
-  </si>
-  <si>
-    <t>I'm Amy. I'm from Virginia and our team is getting smaller. You guys. It's really sad. It's like the porn. Hold on. I hope everybody's having a great week.</t>
-  </si>
-  <si>
-    <t>"2:20"</t>
-  </si>
-  <si>
-    <t>Josh still in Colorado and I am having a pretty good week. Hopefully all of you as well.</t>
-  </si>
-  <si>
-    <t>"2:29"</t>
-  </si>
-  <si>
-    <t>hi, I'm Laura still in Missouri, although I just got back from</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It looks like our group is getting a lot smaller, but we're the only ones that talk anyway. So</t>
-  </si>
-  <si>
-    <t>"2:45"</t>
-  </si>
-  <si>
-    <t>Raylan still here.</t>
-  </si>
-  <si>
-    <t>"2:48"</t>
-  </si>
-  <si>
-    <t>John from Buffalo. Glad five of us could get to the end.</t>
-  </si>
-  <si>
-    <t>"13:14"</t>
-  </si>
-  <si>
-    <t>I don't know about the amount of money changing would make a difference. People still find ways around it and splitting it up into smaller amounts, so they don't get caught. So, whatever they're proposing. I don't think it makes a difference.</t>
-  </si>
-  <si>
-    <t>"13:33"</t>
-  </si>
-  <si>
-    <t>yeah, I mean it depends on what they mean by substantially raise, but just from inflation I think it would make sense to raise it all of these because you know, any of these amounts from whatever they were established five ten years ago however long they don't they don't have that same spending</t>
-  </si>
-  <si>
-    <t>"13:58"</t>
-  </si>
-  <si>
-    <t>I really don't see raising them. I don't know about everybody else, but I know I can get sick and tired of just being bombarded with political ads. You can't do anything without just being bombarded during the, the election season and we've got to do away with the packs. They just absolutely go crazy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bye. I do think that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> you know, it's it just we've got to somehow regulate this, I don't know how but</t>
-  </si>
-  <si>
-    <t>"14:36"</t>
-  </si>
-  <si>
-    <t>I know down here when we just did our primaries, we had two Republicans running against each other, right? And I knew the lower guy, he was probably not going to swing it because he in Northern Virginia, the one guy that was running, he got over like six hundred thousand dollars given to him you guys. And so just a fun his campaign by the way his ads came in everything. I don't think throwing and I can hear what you're saying with inflation Josh but I think throwing more money at it. Just would give them more Liberties to do what they're trying to do and I don't think that's going to fix the problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He seems to be the big thing with all these sessions we've had. And I feel like we're in debt as it is like in the nation and I'm like, who were going to rob now to rob Peter to pay Paul? I'm like, what's up with that? So I am not in favor of raising that amount</t>
-  </si>
-  <si>
-    <t>"15:22"</t>
-  </si>
-  <si>
-    <t>Well in like with that, with the argument of like who's going to pay for it, I'm fine with it. If it's, you know, private citizens donating or the parties giving to their candidates. I think it's the next section where it talks about, you know, Public Funding, which I am very much against pool. I'm sure we'll get to that. As far as the closing loopholes for foreign control, from control, two entities to influence elections. I'm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm all for that, but at the same time I think we should also simultaneously pass legislation that prevents the US from engaging in foreign interference. Because we do that all over the the</t>
-  </si>
-  <si>
-    <t>"16:07"</t>
-  </si>
-  <si>
-    <t>I completely agree with that, we need to close all the loopholes with. There needs to be no foreign money in hour.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elections. These are our elections and needs to stay that way. Totally agree with you. Josh, we need to stay out of other people's elections, too.</t>
-  </si>
-  <si>
-    <t>"18:21"</t>
-  </si>
-  <si>
-    <t>I think the Democracy vouchers are financed by taxpayers money and I'm not okay with that. I'll just be honest with you guys. I think we're taxed enough with everything. It reminds me of like before the Boston Tea Party would like the Sugar Act and everything where they taxed everybody on everything and it's crazy with taxes right now. So I'm just like and I think we have more pressing issues that we could put money towards like our public education with schools school safety just just for an example. I'm not</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Saying fully that. But I'm just trying to give an example of where I'm coming from with that.</t>
-  </si>
-  <si>
-    <t>"18:54"</t>
-  </si>
-  <si>
-    <t>So, I am very against using public funds for any election. I mean, currently, you can donate to the, I think the presidential fund on your yearly taxes if you want. So, if you voluntarily want to contribute great, but I'm against come from government, compulsion. And as far as disclosures, I think those should all be raised to the point where, like a, you know, most citizens wouldn't be covered by it if, you know, if you want to know what businesses,</t>
-  </si>
-  <si>
-    <t>Or what, you know, you know, millionaires or billionaires or contributing great. But I don't think I should be able to find out if the guy down the street. Contributed 250 bucks. Go campaign.</t>
-  </si>
-  <si>
-    <t>"19:37"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm against the public funds as well. And I think that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving people's names would probably discourage some people from giving because they wouldn't want their business known in that way.</t>
-  </si>
-  <si>
-    <t>"19:54"</t>
-  </si>
-  <si>
-    <t>I'm totally against using public funds. I mean, where's it going to come from? We're trillions in debt, is it is we can't afford to do that and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I can understand not wanting names to be given out if you donate to a campaign. But I think the super Pacs we definitely need to know any kind of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company funding and where the super Pacs get their funds from.</t>
-  </si>
-  <si>
-    <t>"20:33"</t>
-  </si>
-  <si>
-    <t>Right. And just to kind of since I ran out of time, like with the with the knowing what individuals did the entire intense of the disclosures is so you know, who's kind of who's in the pocket of which politician or who do they potentially owe favors to if I, if if I give them three hundred bucks, I doubt. I'm I'm securing much quid pro quo from them, or 400, or even a thousand. So I think</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Those should be not available to the public.</t>
-  </si>
-  <si>
-    <t>"21:09"</t>
-  </si>
-  <si>
-    <t>I think that just goes back to being a democracy where we want our money to go. We tell it what to do, right? And I don't think that's people's business if I want to give 3000 and I agree with you on that.</t>
-  </si>
-  <si>
-    <t>"22:22"</t>
-  </si>
-  <si>
-    <t>So, all I got was a big states rights person. I'm against the federal government deciding, every state has to has to run, its redistricting efforts. But I am in favor of like, if my state wanted to put together some kind of independent commission to do it, it's just like it would really depend on how that independent commission is determined like, how do they figure out who's on there? How do you keep that from being corrupt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's just as corrupt as you know, the politicians redistricting for themselves. It's I think would be very difficult to pull off but I'd be for it if they could do it reasonably.</t>
-  </si>
-  <si>
-    <t>"23:08"</t>
-  </si>
-  <si>
-    <t>I don't know if there's a way to do it reasonably because when they re District they do this every 10 years with the census, you know, they walk around and do the senses with us. That's how they come up with, how they're going to read district. And it's like they know where the Democrats are in the Republicans are and people that just don't want. You know, I think that's interesting but I will say this and I'll make this quick. We have an app actually at our GOP office, we're can show you, who is what you're scoring code is, and it's a code, it's not code as a scorer. I'm have to come back to this, but what it does is it lets us know. So one through</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ten. It lets, you know. Okay, well they did they registered Democrat but they voted Republican and it lets you know how to hit the neighborhoods of people. I don't know if you guys are aware of that. It's a sound an app where they call it, my brain is moving fast because I'm speaking with us, I'll pop back on. Explain this here in a minute.</t>
-  </si>
-  <si>
-    <t>"23:53"</t>
-  </si>
-  <si>
-    <t>Anyway, what it is is it's like a Life 360 app is what it is. That's let's just say that's the name of it and it will show you if what whatever you voted and if you do primaries and all that. So I think this redistributing thing to me, that would be kind of crazy to do because they already have that information. Anyway, technically at their GOP offices.</t>
-  </si>
-  <si>
-    <t>"24:21"</t>
-  </si>
-  <si>
-    <t>Yeah, admitted lie. Like I don't think the Technology's there yet but like an open source algorithm that the people the public can look at the code for. But that somehow just kind of breaks down the you know, the chunks of the state and just separates it out almost into as close to a grid as possible factoring in population. But again something like that would have to be very open source. So that everybody knows what's in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the code not just, you know, the the the designers,</t>
-  </si>
-  <si>
-    <t>"24:57"</t>
-  </si>
-  <si>
-    <t>I think it's close to a great system, is we can get would be good.</t>
-  </si>
-  <si>
-    <t>"26:10"</t>
-  </si>
-  <si>
-    <t>I'll go first because I have kids a sixteen-year-old like really guys, honestly they're not ready for they're doing good to get out the door to get to school on time and stuff and I just I am not for a sixteen-year-old, they don't pay taxes. They've not they're not adulting at that point unless they've been kicked out obviously in the situation, depending on the situation. But I totally opposed a sixteen-year-old voting in my</t>
-  </si>
-  <si>
-    <t>"26:33"</t>
-  </si>
-  <si>
-    <t>I like the national holiday thing. I think it would help more people be able to get to the polls that had nine to five jobs. However, I don't think they should tax people for not voting. That's kind of crazy or find them.</t>
-  </si>
-  <si>
-    <t>"26:50"</t>
-  </si>
-  <si>
-    <t>I'm against the holiday. I think it would be burdensome and private firms. And I don't know about you folks, but here, the polls are open for 15 hours. So most people should be able to get there if they really want.</t>
-  </si>
-  <si>
-    <t>"27:04"</t>
-  </si>
-  <si>
-    <t>I'm actually in favor of the first to making it easier for third parties to get onto ballots because routinely what what the two-party system does is whatever threshold they have for signatures. When third party start getting close to that they just up it, you know, in their next session. So, and as far as the national holiday, I'm for it, we already have enough so we could replace one. I think that you could do it without</t>
-  </si>
-  <si>
-    <t>Putting more burden on the the private companies and then as far as yeah 16 year olds are dumb. I think 18 year olds are dumb, I don't even know if we should have the voting age of that let like but but extending it any further down is</t>
-  </si>
-  <si>
-    <t>"27:51"</t>
-  </si>
-  <si>
-    <t>Absolutely no on the 16 year olds. I agree. They're young and dumb and 18. If they can go to war, they can both got no problem with 18. It's, I think we need to make it easier for third-party candidates to get on. I think we need should make Election Day a holiday</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can remember what the other thing else. But</t>
-  </si>
-  <si>
-    <t>"28:25"</t>
-  </si>
-  <si>
-    <t>Yes, since I ran out of time, did the, you know, making it a Civic obligation where you get fined for boating, like, not voting is a vote. It's a vote that all of these people suck and I don't want anything to do with them, or they don't matter to my life, that should be an option.</t>
-  </si>
-  <si>
-    <t>"28:45"</t>
-  </si>
-  <si>
-    <t>It's absolutely stupid to think they're going to find for not voting. It should be your you're right if you do not want to vote, do not have to vote in that said, you know, it's you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No vote is a.</t>
-  </si>
-  <si>
-    <t>"29:04"</t>
-  </si>
-  <si>
-    <t>I think the 16 year-old voting thing was just for school board meetings and you have, to be honest there are very few sixteen-year-olds. I would actually go and do this and they're probably, you know, the top of their class, the kids who are running for class president. Like those type of kids, are you my sixteen-year-old? I watched him piss in the trash can in the kitchen because he was too lazy to go to the bathroom. I have seen this. So most sixteen-year-olds I don't even think would go do it.</t>
-  </si>
-  <si>
-    <t>"29:32"</t>
-  </si>
-  <si>
-    <t>"29:34"</t>
-  </si>
-  <si>
-    <t>Their brains are not developed actually scientifically till 25, the prefrontal cortex. So let alone adding voting in there and Truth, adults make 35,000 decisions a day students make 3,000. So this is one more to tack on. They, I really don't think and I'm with you Raylan. They're like, unless they're exceptional and they're like these awesome honor students which like what's the percentage on that, right? And then to I was thinking about the fine thing they're going to have to find us for something so they can pay for something else guys. I'm just kidding. I'm just playing around.</t>
-  </si>
-  <si>
-    <t>"35:40"</t>
-  </si>
-  <si>
-    <t>If you guys want to delete mine because Josh is pretty good. How he formed his you can do that if you want me to get rid of it.</t>
-  </si>
-  <si>
-    <t>"35:51"</t>
-  </si>
-  <si>
-    <t>I think it's ranked third, so they only asked the first two anyway, so it doesn't matter.</t>
-  </si>
-  <si>
-    <t>"36:39"</t>
-  </si>
-  <si>
-    <t>Actually, I'm not sure how many they ask, but I think they just ask the top two questions but, yeah, they do kind of say the same thing.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -445,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -554,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1636,744 +1302,891 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:08"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I'm Amy. I'm from Virginia and our team is getting smaller. You guys. It's really sad. It's like the porn. Hold on. I hope everybody's having a great week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:20"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Josh still in Colorado and I am having a pretty good week. Hopefully all of you as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:29"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>hi, I'm Laura still in Missouri, although I just got back from</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:29"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It looks like our group is getting a lot smaller, but we're the only ones that talk anyway. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>9699</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:45"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Raylan still here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48706</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"2:48"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>John from Buffalo. Glad five of us could get to the end.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>9699</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"13:14"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>I don't know about the amount of money changing would make a difference. People still find ways around it and splitting it up into smaller amounts, so they don't get caught. So, whatever they're proposing. I don't think it makes a difference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"13:33"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>yeah, I mean it depends on what they mean by substantially raise, but just from inflation I think it would make sense to raise it all of these because you know, any of these amounts from whatever they were established five ten years ago however long they don't they don't have that same spending</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"13:58"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I really don't see raising them. I don't know about everybody else, but I know I can get sick and tired of just being bombarded with political ads. You can't do anything without just being bombarded during the, the election season and we've got to do away with the packs. They just absolutely go crazy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"13:58"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bye. I do think that</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"13:58"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you know, it's it just we've got to somehow regulate this, I don't know how but</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"14:36"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>I know down here when we just did our primaries, we had two Republicans running against each other, right? And I knew the lower guy, he was probably not going to swing it because he in Northern Virginia, the one guy that was running, he got over like six hundred thousand dollars given to him you guys. And so just a fun his campaign by the way his ads came in everything. I don't think throwing and I can hear what you're saying with inflation Josh but I think throwing more money at it. Just would give them more Liberties to do what they're trying to do and I don't think that's going to fix the problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"14:36"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He seems to be the big thing with all these sessions we've had. And I feel like we're in debt as it is like in the nation and I'm like, who were going to rob now to rob Peter to pay Paul? I'm like, what's up with that? So I am not in favor of raising that amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:22"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Well in like with that, with the argument of like who's going to pay for it, I'm fine with it. If it's, you know, private citizens donating or the parties giving to their candidates. I think it's the next section where it talks about, you know, Public Funding, which I am very much against pool. I'm sure we'll get to that. As far as the closing loopholes for foreign control, from control, two entities to influence elections. I'm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:22"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I'm all for that, but at the same time I think we should also simultaneously pass legislation that prevents the US from engaging in foreign interference. Because we do that all over the the</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"16:07"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>I completely agree with that, we need to close all the loopholes with. There needs to be no foreign money in hour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"16:07"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elections. These are our elections and needs to stay that way. Totally agree with you. Josh, we need to stay out of other people's elections, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:21"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>I think the Democracy vouchers are financed by taxpayers money and I'm not okay with that. I'll just be honest with you guys. I think we're taxed enough with everything. It reminds me of like before the Boston Tea Party would like the Sugar Act and everything where they taxed everybody on everything and it's crazy with taxes right now. So I'm just like and I think we have more pressing issues that we could put money towards like our public education with schools school safety just just for an example. I'm not</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:21"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saying fully that. But I'm just trying to give an example of where I'm coming from with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"18:54"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>So, I am very against using public funds for any election. I mean, currently, you can donate to the, I think the presidential fund on your yearly taxes if you want. So, if you voluntarily want to contribute great, but I'm against come from government, compulsion. And as far as disclosures, I think those should all be raised to the point where, like a, you know, most citizens wouldn't be covered by it if, you know, if you want to know what businesses,</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"18:54"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Or what, you know, you know, millionaires or billionaires or contributing great. But I don't think I should be able to find out if the guy down the street. Contributed 250 bucks. Go campaign.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48706</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"19:37"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I'm against the public funds as well. And I think that</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48706</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:37"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> giving people's names would probably discourage some people from giving because they wouldn't want their business known in that way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"19:54"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I'm totally against using public funds. I mean, where's it going to come from? We're trillions in debt, is it is we can't afford to do that and</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"19:54"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"19:54"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can understand not wanting names to be given out if you donate to a campaign. But I think the super Pacs we definitely need to know any kind of</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"19:54"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Company funding and where the super Pacs get their funds from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"20:33"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Right. And just to kind of since I ran out of time, like with the with the knowing what individuals did the entire intense of the disclosures is so you know, who's kind of who's in the pocket of which politician or who do they potentially owe favors to if I, if if I give them three hundred bucks, I doubt. I'm I'm securing much quid pro quo from them, or 400, or even a thousand. So I think</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"20:33"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Those should be not available to the public.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"21:09"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I think that just goes back to being a democracy where we want our money to go. We tell it what to do, right? And I don't think that's people's business if I want to give 3000 and I agree with you on that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"22:22"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>So, all I got was a big states rights person. I'm against the federal government deciding, every state has to has to run, its redistricting efforts. But I am in favor of like, if my state wanted to put together some kind of independent commission to do it, it's just like it would really depend on how that independent commission is determined like, how do they figure out who's on there? How do you keep that from being corrupt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"22:22"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's just as corrupt as you know, the politicians redistricting for themselves. It's I think would be very difficult to pull off but I'd be for it if they could do it reasonably.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"23:08"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>I don't know if there's a way to do it reasonably because when they re District they do this every 10 years with the census, you know, they walk around and do the senses with us. That's how they come up with, how they're going to read district. And it's like they know where the Democrats are in the Republicans are and people that just don't want. You know, I think that's interesting but I will say this and I'll make this quick. We have an app actually at our GOP office, we're can show you, who is what you're scoring code is, and it's a code, it's not code as a scorer. I'm have to come back to this, but what it does is it lets us know. So one through</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"23:08"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ten. It lets, you know. Okay, well they did they registered Democrat but they voted Republican and it lets you know how to hit the neighborhoods of people. I don't know if you guys are aware of that. It's a sound an app where they call it, my brain is moving fast because I'm speaking with us, I'll pop back on. Explain this here in a minute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"23:53"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"23:53"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Anyway, what it is is it's like a Life 360 app is what it is. That's let's just say that's the name of it and it will show you if what whatever you voted and if you do primaries and all that. So I think this redistributing thing to me, that would be kind of crazy to do because they already have that information. Anyway, technically at their GOP offices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:21"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, admitted lie. Like I don't think the Technology's there yet but like an open source algorithm that the people the public can look at the code for. But that somehow just kind of breaks down the you know, the chunks of the state and just separates it out almost into as close to a grid as possible factoring in population. But again something like that would have to be very open source. So that everybody knows what's in the</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"24:21"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the code not just, you know, the the the designers,</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>I think it's close to a great system, is we can get would be good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"26:10"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>I'll go first because I have kids a sixteen-year-old like really guys, honestly they're not ready for they're doing good to get out the door to get to school on time and stuff and I just I am not for a sixteen-year-old, they don't pay taxes. They've not they're not adulting at that point unless they've been kicked out obviously in the situation, depending on the situation. But I totally opposed a sixteen-year-old voting in my</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>9699</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"26:33"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>I like the national holiday thing. I think it would help more people be able to get to the polls that had nine to five jobs. However, I don't think they should tax people for not voting. That's kind of crazy or find them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48706</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"26:50"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48706</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"26:50"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>I'm against the holiday. I think it would be burdensome and private firms. And I don't know about you folks, but here, the polls are open for 15 hours. So most people should be able to get there if they really want.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"27:04"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>I'm actually in favor of the first to making it easier for third parties to get onto ballots because routinely what what the two-party system does is whatever threshold they have for signatures. When third party start getting close to that they just up it, you know, in their next session. So, and as far as the national holiday, I'm for it, we already have enough so we could replace one. I think that you could do it without</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"27:04"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Putting more burden on the the private companies and then as far as yeah 16 year olds are dumb. I think 18 year olds are dumb, I don't even know if we should have the voting age of that let like but but extending it any further down is</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"27:51"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Absolutely no on the 16 year olds. I agree. They're young and dumb and 18. If they can go to war, they can both got no problem with 18. It's, I think we need to make it easier for third-party candidates to get on. I think we need should make Election Day a holiday</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"27:51"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and,</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"27:51"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Can remember what the other thing else. But</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>10056</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"28:25"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Yes, since I ran out of time, did the, you know, making it a Civic obligation where you get fined for boating, like, not voting is a vote. It's a vote that all of these people suck and I don't want anything to do with them, or they don't matter to my life, that should be an option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"28:45"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>It's absolutely stupid to think they're going to find for not voting. It should be your you're right if you do not want to vote, do not have to vote in that said, you know, it's you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>10369</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"28:45"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No vote is a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>9699</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"29:04"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>I think the 16 year-old voting thing was just for school board meetings and you have, to be honest there are very few sixteen-year-olds. I would actually go and do this and they're probably, you know, the top of their class, the kids who are running for class president. Like those type of kids, are you my sixteen-year-old? I watched him piss in the trash can in the kitchen because he was too lazy to go to the bathroom. I have seen this. So most sixteen-year-olds I don't even think would go do it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"29:32"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"29:34"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Their brains are not developed actually scientifically till 25, the prefrontal cortex. So let alone adding voting in there and Truth, adults make 35,000 decisions a day students make 3,000. So this is one more to tack on. They, I really don't think and I'm with you Raylan. They're like, unless they're exceptional and they're like these awesome honor students which like what's the percentage on that, right? And then to I was thinking about the fine thing they're going to have to find us for something so they can pay for something else guys. I'm just kidding. I'm just playing around.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48714</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"35:40"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>If you guys want to delete mine because Josh is pretty good. How he formed his you can do that if you want me to get rid of it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>9699</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"35:51"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>I think it's ranked third, so they only asked the first two anyway, so it doesn't matter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>9699</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>88</v>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"36:39"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Actually, I'm not sure how many they ask, but I think they just ask the top two questions but, yeah, they do kind of say the same thing.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22BB30D-5243-9348-AA57-06A5AF4D7D14}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>